--- a/4_가치별t검정.xlsx
+++ b/4_가치별t검정.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+  <si>
+    <t>가치</t>
+  </si>
+  <si>
+    <t>T_검정통계량</t>
+  </si>
+  <si>
+    <t>p_값</t>
+  </si>
+  <si>
+    <t>귀무가설</t>
+  </si>
+  <si>
+    <t>공익적 가치</t>
+  </si>
+  <si>
+    <t>경제적 가치</t>
+  </si>
+  <si>
+    <t>환경적 가치</t>
+  </si>
+  <si>
+    <t>도덕적 가치</t>
+  </si>
+  <si>
+    <t>역사적 가치</t>
+  </si>
+  <si>
+    <t>예술적 가치</t>
+  </si>
+  <si>
+    <t>학술적 가치</t>
+  </si>
+  <si>
+    <t>생활적 가치</t>
+  </si>
+  <si>
+    <t>공존적 가치</t>
+  </si>
+  <si>
+    <t>공동체적 가치</t>
+  </si>
+  <si>
+    <t>정서적 가치</t>
+  </si>
+  <si>
+    <t>기각</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,273 +418,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>가치</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>T_검정통계량</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_값</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>귀무가설</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>공익적 가치</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5.378267896922735</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.501838458681481e-08</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>기각</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>경제적 가치</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3.151357368015148</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.001651837816905186</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>기각</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>환경적 가치</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4.359486724970108</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.377223143737995e-05</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>기각</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>도덕적 가치</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5.328822575343144</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.112712711116746e-07</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>기각</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>역사적 가치</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3.932144566215353</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.737701059318793e-05</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>기각</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C2">
+        <v>5.3783</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>예술적 가치</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4.84528897372268</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.372495194890435e-06</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>기각</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C3">
+        <v>3.1514</v>
+      </c>
+      <c r="D3">
+        <v>0.0017</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>학술적 가치</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3.690128824201073</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0002307952806640082</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>기각</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="C4">
+        <v>4.3595</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>생활적 가치</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>3.104632360520274</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.001934779523366353</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>기각</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="C5">
+        <v>5.3288</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>공존적 가치</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>6.469806217171699</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.260764633529978e-10</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>기각</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="C6">
+        <v>3.9321</v>
+      </c>
+      <c r="D6">
+        <v>0.0001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>공동체적 가치</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>5.144370746669151</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.976448061253094e-07</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>기각</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="C7">
+        <v>4.8453</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>정서적 가치</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>3.346066450960209</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0008364987006607165</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>기각</t>
-        </is>
+      <c r="C8">
+        <v>3.6901</v>
+      </c>
+      <c r="D8">
+        <v>0.0002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3.1046</v>
+      </c>
+      <c r="D9">
+        <v>0.0019</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>6.4698</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>5.1444</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>3.3461</v>
+      </c>
+      <c r="D12">
+        <v>0.0008</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4_가치별t검정.xlsx
+++ b/4_가치별t검정.xlsx
@@ -1,93 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
-  <si>
-    <t>가치</t>
-  </si>
-  <si>
-    <t>T_검정통계량</t>
-  </si>
-  <si>
-    <t>p_값</t>
-  </si>
-  <si>
-    <t>귀무가설</t>
-  </si>
-  <si>
-    <t>공익적 가치</t>
-  </si>
-  <si>
-    <t>경제적 가치</t>
-  </si>
-  <si>
-    <t>환경적 가치</t>
-  </si>
-  <si>
-    <t>도덕적 가치</t>
-  </si>
-  <si>
-    <t>역사적 가치</t>
-  </si>
-  <si>
-    <t>예술적 가치</t>
-  </si>
-  <si>
-    <t>학술적 가치</t>
-  </si>
-  <si>
-    <t>생활적 가치</t>
-  </si>
-  <si>
-    <t>공존적 가치</t>
-  </si>
-  <si>
-    <t>공동체적 가치</t>
-  </si>
-  <si>
-    <t>정서적 가치</t>
-  </si>
-  <si>
-    <t>기각</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,215 +420,294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>가치</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T_검정통계량</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p_값</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>귀무가설</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>공익적 가치</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5.378268</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>기각</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>경제적 가치</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3.151357</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.001652</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>기각</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>환경적 가치</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4.359487</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.4e-05</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>기각</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>도덕적 가치</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5.328823</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>기각</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>5.3783</v>
-      </c>
-      <c r="D2">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>역사적 가치</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3.932145</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.7e-05</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>기각</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>예술적 가치</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4.845289</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>기각</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>학술적 가치</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3.690129</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.000231</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>기각</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>생활적 가치</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3.104632</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.001935</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>기각</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>공존적 가치</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6.469806</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>3.1514</v>
-      </c>
-      <c r="D3">
-        <v>0.0017</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>4.3595</v>
-      </c>
-      <c r="D4">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>기각</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>공동체적 가치</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5.144371</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>5.3288</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>3.9321</v>
-      </c>
-      <c r="D6">
-        <v>0.0001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>4.8453</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>기각</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>3.6901</v>
-      </c>
-      <c r="D8">
-        <v>0.0002</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>정서적 가치</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3.346066</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.000836</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>기각</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>3.1046</v>
-      </c>
-      <c r="D9">
-        <v>0.0019</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>6.4698</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>5.1444</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>3.3461</v>
-      </c>
-      <c r="D12">
-        <v>0.0008</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>총평균</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4.577736</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.000183</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>기각</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>